--- a/files/example1.xlsx
+++ b/files/example1.xlsx
@@ -1,52 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\puantoryeni\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9C7D82-487F-4587-B5EB-33CF1A297CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
-  <si>
-    <t xml:space="preserve">Sıra No </t>
-  </si>
-  <si>
-    <t>Sıra2</t>
-  </si>
-  <si>
-    <t>Hello World !</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Job Start Date</t>
+  </si>
+  <si>
+    <t>Daily Wages</t>
+  </si>
+  <si>
+    <t>Wage Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -93,18 +106,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -394,117 +417,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:K1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.70866141732283" right="0.70866141732283" top="0.74803149606299" bottom="0.74803149606299" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="1" orientation="portrait" scale="89" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+  <pageMargins left="0.70866141732282995" right="0.70866141732282995" top="0.74803149606299002" bottom="0.74803149606299002" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup scale="66" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
     <oddFooter>&amp;L&amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>

--- a/files/example1.xlsx
+++ b/files/example1.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\puantoryeni\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9C7D82-487F-4587-B5EB-33CF1A297CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sayfa1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Full Name</t>
   </si>
@@ -38,28 +33,72 @@
   </si>
   <si>
     <t>Wage Type</t>
+  </si>
+  <si>
+    <t>Mehmet Ali Gökmen</t>
+  </si>
+  <si>
+    <t>beyzade83@gmail.com</t>
+  </si>
+  <si>
+    <t>03.09.2024</t>
+  </si>
+  <si>
+    <t>Ertan Güneş</t>
+  </si>
+  <si>
+    <t>04.08.2024</t>
+  </si>
+  <si>
+    <t>Bilge Kazaz</t>
+  </si>
+  <si>
+    <t>02.09.2024</t>
+  </si>
+  <si>
+    <t>Hakan Soydaş</t>
+  </si>
+  <si>
+    <t>beyzade83@hotmail.com</t>
+  </si>
+  <si>
+    <t>05079432729</t>
+  </si>
+  <si>
+    <t>01.09.2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -107,27 +146,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf xfId="0" fontId="1" numFmtId="49" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -417,27 +448,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="true" style="0"/>
+    <col min="2" max="2" width="28.140625" customWidth="true" style="0"/>
+    <col min="3" max="3" width="19.42578125" customWidth="true" style="4"/>
+    <col min="4" max="4" width="21.140625" customWidth="true" style="0"/>
+    <col min="5" max="5" width="18.5703125" customWidth="true" style="0"/>
+    <col min="6" max="6" width="18.140625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -457,7 +489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,13 +509,88 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5079432724</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1500.0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5050105555</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>45000.0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5379433957</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>45000.0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>1500.0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins left="0.70866141732282995" right="0.70866141732282995" top="0.74803149606299002" bottom="0.74803149606299002" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup scale="66" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.70866141732283" right="0.70866141732283" top="0.74803149606299" bottom="0.74803149606299" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="66" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddFooter>&amp;L&amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
